--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA25AC5D-49A4-4346-8C62-C5713DD3AF0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798A9300-ECB8-4790-A80C-A222BBA93E51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,7 +754,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,102 +1166,104 @@
       <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
       <c r="I7" s="8">
         <f t="shared" ref="I7:I16" si="16">G7-H7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="10"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="10"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="10"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="10"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA7" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -1392,102 +1394,104 @@
       <c r="G9" s="5">
         <v>2</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>2</v>
+      </c>
       <c r="I9" s="8">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="10"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="10"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="10"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="10"/>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA9" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:53" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2605,6 +2609,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2616,11 +2625,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\UV - Ingeniería de Software\6to Semestre\Desarrollo de Software\1er Parcial\Tareas y Trabajos\Clon Repo\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798A9300-ECB8-4790-A80C-A222BBA93E51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAAE348E-942B-4BB2-B773-15DF6AD37455}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -754,7 +754,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,96 +1059,98 @@
         <v>3</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8">
+        <v>4</v>
+      </c>
       <c r="L6" s="8">
         <f t="shared" ref="L6:L16" si="0">I6-K6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8">
         <f t="shared" ref="O6:O16" si="1">L6-N6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8">
         <f t="shared" ref="R6:R16" si="2">O6-Q6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8">
         <f t="shared" ref="U6:U16" si="3">R6-T6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8">
         <f t="shared" ref="X6:X16" si="4">U6-W6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8">
         <f t="shared" ref="AA6:AA16" si="5">X6-Z6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8">
         <f t="shared" ref="AD6:AD16" si="6">AA6-AC6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8">
         <f t="shared" ref="AG6:AG16" si="7">AD6-AF6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AH6" s="10"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ16" si="8">AG6-AI6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8">
         <f t="shared" ref="AM6:AM16" si="9">AJ6-AL6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8">
         <f t="shared" ref="AP6:AP16" si="10">AM6-AO6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8">
         <f t="shared" ref="AS6:AS16" si="11">AP6-AR6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AT6" s="10"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8">
         <f t="shared" ref="AV6:AV16" si="12">AS6-AU6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW6" s="10"/>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8">
         <f t="shared" ref="AY6:AY16" si="13">AV6-AX6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AZ6" s="11">
         <f t="shared" ref="AZ6:AZ16" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA6" s="11">
         <f t="shared" ref="BA6:BA16" si="15">G6-AZ6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="2:53" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,11 +2611,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2625,6 +2622,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAAE348E-942B-4BB2-B773-15DF6AD37455}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618C859-0B93-469D-961B-5F6AAB5F9520}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>Columna</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Prueba general de sistema en Linux.</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1054,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G6" s="5">
         <v>3</v>
@@ -1163,7 +1169,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
@@ -1278,7 +1284,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -1391,7 +1397,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5">
         <v>2</v>
@@ -1619,7 +1625,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G11" s="5">
         <v>3</v>
@@ -1630,96 +1636,98 @@
         <v>3</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8">
+        <v>4</v>
+      </c>
       <c r="L11" s="8">
         <f>I11-K11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8">
         <f>L11-N11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8">
         <f>O11-Q11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8">
         <f>R11-T11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8">
         <f>U11-W11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8">
         <f>X11-Z11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8">
         <f>AA11-AC11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8">
         <f>AD11-AF11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AH11" s="10"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8">
         <f>AG11-AI11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AK11" s="10"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8">
         <f>AJ11-AL11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8">
         <f>AM11-AO11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8">
         <f>AP11-AR11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AT11" s="10"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8">
         <f>AS11-AU11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW11" s="10"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8">
         <f>AV11-AX11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AZ11" s="11">
         <f>H11+K11+N11+Q11+T11+W11+Z11+AC11+AF11+AI11+AL11+AO11+AR11+AU11+AX11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA11" s="11">
         <f>G11-AZ11</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="2:53" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618C859-0B93-469D-961B-5F6AAB5F9520}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC949B0C-C5A1-4262-A8F1-1FDAC553D05F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Columna</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Hecho</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -760,7 +757,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1281,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="5">
         <v>3</v>
@@ -1301,90 +1298,92 @@
         <v>3</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8">
+        <v>3</v>
+      </c>
       <c r="O8" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="10"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="10"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="10"/>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="10"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="10"/>
       <c r="AX8" s="8"/>
       <c r="AY8" s="8">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA8" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -2619,6 +2618,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2630,11 +2634,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC949B0C-C5A1-4262-A8F1-1FDAC553D05F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBD89A1-D7FE-4065-85B0-62C9E7897CCE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -757,7 +757,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,84 +1875,86 @@
         <v>4</v>
       </c>
       <c r="P13" s="10"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="8">
+        <v>3</v>
+      </c>
       <c r="R13" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,11 +2620,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2634,6 +2631,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBD89A1-D7FE-4065-85B0-62C9E7897CCE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79D9A000-BCA8-464C-B54B-D9E524BD2F65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -754,10 +754,10 @@
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1511,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G10" s="5">
         <v>2</v>
@@ -1534,84 +1534,86 @@
         <v>3</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="8">
+        <v>3</v>
+      </c>
       <c r="R10" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,84 +1764,86 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
       <c r="R12" s="8">
         <f>O12-Q12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8">
         <f>R12-T12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8">
         <f>U12-W12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8">
         <f>X12-Z12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <f>AA12-AC12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8">
         <f>AD12-AF12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8">
         <f>AG12-AI12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8">
         <f>AJ12-AL12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8">
         <f>AM12-AO12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8">
         <f>AP12-AR12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="10"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8">
         <f>AS12-AU12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8">
         <f>AV12-AX12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ12" s="11">
         <f>H12+K12+N12+Q12+T12+W12+Z12+AC12+AF12+AI12+AL12+AO12+AR12+AU12+AX12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="11">
         <f>G12-AZ12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2620,6 +2624,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2631,11 +2640,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79D9A000-BCA8-464C-B54B-D9E524BD2F65}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AD4C5-D088-46AA-BF88-0911B9B27B03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>Columna</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Hecho</t>
+  </si>
+  <si>
+    <t>En proceo</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1744,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G12" s="5">
         <v>3</v>
@@ -1856,7 +1859,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5">
         <v>4</v>
@@ -1887,78 +1890,80 @@
         <v>1</v>
       </c>
       <c r="S13" s="10"/>
-      <c r="T13" s="8"/>
+      <c r="T13" s="8">
+        <v>4</v>
+      </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G16" s="5">
         <v>3</v>
@@ -2310,7 +2315,7 @@
         <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -2624,11 +2629,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2640,6 +2640,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AD4C5-D088-46AA-BF88-0911B9B27B03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521189E9-997B-41CA-BCCC-0D6DE2B29CF8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,7 +760,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,79 +1891,79 @@
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,6 +2629,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2640,11 +2645,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521189E9-997B-41CA-BCCC-0D6DE2B29CF8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -210,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,8 +448,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -753,14 +775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,78 +1797,80 @@
         <v>2</v>
       </c>
       <c r="S12" s="10"/>
-      <c r="T12" s="8"/>
+      <c r="T12" s="8">
+        <v>4</v>
+      </c>
       <c r="U12" s="8">
         <f>R12-T12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8">
         <f>U12-W12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8">
         <f>X12-Z12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <f>AA12-AC12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8">
         <f>AD12-AF12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8">
         <f>AG12-AI12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8">
         <f>AJ12-AL12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8">
         <f>AM12-AO12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8">
         <f>AP12-AR12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AT12" s="10"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8">
         <f>AS12-AU12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8">
         <f>AV12-AX12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AZ12" s="11">
         <f>H12+K12+N12+Q12+T12+W12+Z12+AC12+AF12+AI12+AL12+AO12+AR12+AU12+AX12</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA12" s="11">
         <f>G12-AZ12</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2315,7 +2339,7 @@
         <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -2344,78 +2368,80 @@
         <v>1</v>
       </c>
       <c r="S17" s="10"/>
-      <c r="T17" s="8"/>
+      <c r="T17" s="8">
+        <v>3</v>
+      </c>
       <c r="U17" s="8">
         <f t="shared" ref="U17:U19" si="21">R17-T17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V17" s="10"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8">
         <f t="shared" ref="X17:X19" si="22">U17-W17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8">
         <f t="shared" ref="AA17:AA19" si="23">X17-Z17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8">
         <f t="shared" ref="AD17:AD19" si="24">AA17-AC17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AE17" s="10"/>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8">
         <f t="shared" ref="AG17:AG19" si="25">AD17-AF17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AH17" s="10"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8">
         <f t="shared" ref="AJ17:AJ19" si="26">AG17-AI17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK17" s="10"/>
       <c r="AL17" s="8"/>
       <c r="AM17" s="8">
         <f t="shared" ref="AM17:AM19" si="27">AJ17-AL17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN17" s="10"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8">
         <f t="shared" ref="AP17:AP19" si="28">AM17-AO17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ17" s="10"/>
       <c r="AR17" s="8"/>
       <c r="AS17" s="8">
         <f t="shared" ref="AS17:AS19" si="29">AP17-AR17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AT17" s="10"/>
       <c r="AU17" s="8"/>
       <c r="AV17" s="8">
         <f t="shared" ref="AV17:AV19" si="30">AS17-AU17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AW17" s="10"/>
       <c r="AX17" s="8"/>
       <c r="AY17" s="8">
         <f t="shared" ref="AY17:AY19" si="31">AV17-AX17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AZ17" s="11">
         <f>H17+K17+N17+Q17+T17+W17+Z17+AC17+AF17+AI17+AL17+AO17+AR17+AU17+AX17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA17" s="11">
         <f t="shared" ref="BA17:BA19" si="32">G17-AZ17</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="2:53" x14ac:dyDescent="0.25">
@@ -2629,11 +2655,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2645,6 +2666,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2662,7 +2688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">

--- a/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
+++ b/Plantillas/Plantilla Lista de Tareas de la 8va Iteración.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Javier\Documents\GitHub\DesarrolloSoftwareISO\Plantillas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE7AC39-6B2D-4D83-BC7A-3A09B3681C08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Columna</t>
   </si>
@@ -196,15 +202,12 @@
   </si>
   <si>
     <t>Hecho</t>
-  </si>
-  <si>
-    <t>En proceo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,7 +476,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -532,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,9 +568,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,6 +620,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,14 +812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1920,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5">
         <v>4</v>
@@ -1922,72 +1959,74 @@
         <v>-6</v>
       </c>
       <c r="V13" s="10"/>
-      <c r="W13" s="8"/>
+      <c r="W13" s="8">
+        <v>4</v>
+      </c>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,7 +2265,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="5">
         <v>3</v>
@@ -2255,78 +2294,82 @@
         <v>3</v>
       </c>
       <c r="S16" s="10"/>
-      <c r="T16" s="8"/>
+      <c r="T16" s="8">
+        <v>4</v>
+      </c>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="10"/>
-      <c r="W16" s="8"/>
+      <c r="W16" s="8">
+        <v>2</v>
+      </c>
       <c r="X16" s="8">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AE16" s="10"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AH16" s="10"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AK16" s="10"/>
       <c r="AL16" s="8"/>
       <c r="AM16" s="8">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AN16" s="10"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="8"/>
       <c r="AS16" s="8">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AT16" s="10"/>
       <c r="AU16" s="8"/>
       <c r="AV16" s="8">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AW16" s="10"/>
       <c r="AX16" s="8"/>
       <c r="AY16" s="8">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="AZ16" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA16" s="11">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -2655,6 +2698,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -2666,11 +2714,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2688,7 +2731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
